--- a/00 BX - Proyectos/Juntanza/Informe II/documentos/agentes segundo informe juntanza étnica.xlsx
+++ b/00 BX - Proyectos/Juntanza/Informe II/documentos/agentes segundo informe juntanza étnica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\BX_Juntanza\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD60FBF-8BF5-4C1E-9336-BFD82BF56267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7AC5A5-6345-496D-9748-21043DB5DC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1946048B-CE78-984B-9CF4-A0EC211525A9}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1946048B-CE78-984B-9CF4-A0EC211525A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -560,28 +560,28 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,73 +898,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8635E444-73A1-DA42-BC14-5FED88917A8A}">
   <dimension ref="A1:EH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:138" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>80</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="19" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="17"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="16" t="s">
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="24" t="s">
         <v>16</v>
       </c>
       <c r="Y1" s="1"/>
@@ -1083,18 +1083,18 @@
       <c r="EH1" s="2"/>
     </row>
     <row r="2" spans="1:138" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="15"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="15"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1104,7 @@
       <c r="O2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="21"/>
+      <c r="P2" s="18"/>
       <c r="Q2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1120,9 +1120,9 @@
       <c r="U2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="25"/>
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
@@ -1242,7 +1242,7 @@
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1258,14 +1258,14 @@
         <v>26</v>
       </c>
       <c r="G3" s="7">
+        <f>+H3-180</f>
+        <v>44724</v>
+      </c>
+      <c r="H3" s="7">
         <v>44904</v>
       </c>
-      <c r="H3" s="7">
-        <f>+G3-180</f>
-        <v>44724</v>
-      </c>
       <c r="I3" s="7">
-        <f>+G3+180</f>
+        <f>+H3+180</f>
         <v>45084</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1422,7 +1422,7 @@
       <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1438,14 +1438,14 @@
         <v>36</v>
       </c>
       <c r="G4" s="7">
+        <f>+H4-180</f>
+        <v>44417</v>
+      </c>
+      <c r="H4" s="7">
         <v>44597</v>
       </c>
-      <c r="H4" s="7">
-        <f t="shared" ref="H4:H8" si="0">+G4-180</f>
-        <v>44417</v>
-      </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I8" si="1">+G4+180</f>
+        <f t="shared" ref="I4:I8" si="0">+H4+180</f>
         <v>44777</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -1600,7 +1600,7 @@
       <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1616,14 +1616,14 @@
         <v>44</v>
       </c>
       <c r="G5" s="7">
+        <f>+H5-180</f>
+        <v>44783</v>
+      </c>
+      <c r="H5" s="7">
         <v>44963</v>
       </c>
-      <c r="H5" s="7">
+      <c r="I5" s="7">
         <f t="shared" si="0"/>
-        <v>44783</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="1"/>
         <v>45143</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -1774,7 +1774,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1790,14 +1790,14 @@
         <v>52</v>
       </c>
       <c r="G6" s="7">
+        <f>+H6-180</f>
+        <v>44802</v>
+      </c>
+      <c r="H6" s="7">
         <v>44982</v>
       </c>
-      <c r="H6" s="7">
+      <c r="I6" s="7">
         <f t="shared" si="0"/>
-        <v>44802</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
         <v>45162</v>
       </c>
       <c r="J6" s="6" t="s">
@@ -1948,7 +1948,7 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1964,14 +1964,14 @@
         <v>60</v>
       </c>
       <c r="G7" s="7">
+        <f>+H7-180</f>
+        <v>44693</v>
+      </c>
+      <c r="H7" s="7">
         <v>44873</v>
       </c>
-      <c r="H7" s="7">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
-        <v>44693</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
         <v>45053</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2126,7 +2126,7 @@
       <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -2142,14 +2142,14 @@
         <v>70</v>
       </c>
       <c r="G8" s="7">
+        <f>+H8-180</f>
+        <v>44755</v>
+      </c>
+      <c r="H8" s="7">
         <v>44935</v>
       </c>
-      <c r="H8" s="7">
+      <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>44755</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
         <v>45115</v>
       </c>
       <c r="J8" s="6"/>
@@ -2288,6 +2288,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2295,16 +2300,11 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:O1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X3:X8" xr:uid="{55CED1D9-49ED-8748-9156-6FE51C4C5D54}">
